--- a/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Instructions au patient</t>
+    <t>Instructions au patient</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -278,9 +278,6 @@
   <si>
     <t xml:space="preserve">Narrative
 </t>
-  </si>
-  <si>
-    <t>Instructions au patient</t>
   </si>
   <si>
     <t>fr-lm-instructions-patient.statutInstructionsPatient</t>
@@ -1092,10 +1089,10 @@
         <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1163,10 +1160,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1189,13 +1186,13 @@
         <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L6" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="M6" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1246,7 +1243,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -1263,10 +1260,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1289,13 +1286,13 @@
         <v>73</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="M7" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1346,7 +1343,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>74</v>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
+++ b/mappingCorps/ig/StructureDefinition-fr-lm-instructions-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
